--- a/sequences/09_localizer.xlsx
+++ b/sequences/09_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
   </si>
   <si>
     <t>flower/flower010.png</t>
   </si>
   <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
     <t>car/car012.png</t>
   </si>
   <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
   </si>
   <si>
     <t>car/car006.png</t>
   </si>
   <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
   </si>
   <si>
     <t>dog/dog008.png</t>
   </si>
   <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
   </si>
   <si>
     <t>flower/flower023.png</t>
   </si>
   <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
     <t>face/face018.png</t>
   </si>
   <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
     <t>face/face021.png</t>
   </si>
   <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
   </si>
   <si>
     <t>face/face025.png</t>
   </si>
   <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
+    <t>face/face020.png</t>
   </si>
   <si>
     <t>dog/dog016.png</t>
   </si>
   <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
   </si>
   <si>
     <t>dog/dog038.png</t>
   </si>
   <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
     <t>flower/flower046.png</t>
   </si>
   <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
   </si>
   <si>
     <t>car/car043.png</t>
   </si>
   <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
   </si>
   <si>
     <t>face/face052.png</t>
   </si>
   <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
+    <t>car/car049.png</t>
   </si>
   <si>
     <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.210197339994146</v>
+        <v>1.567345416280976</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.531920961513569</v>
+        <v>1.748982435520094</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.384805254943859</v>
+        <v>1.576120589101312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.787263273588619</v>
+        <v>1.605896058626487</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.445924172179292</v>
+        <v>1.478416231015514</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.429809540362529</v>
+        <v>1.451623582354245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.466705822900875</v>
+        <v>1.467191195718546</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.496688620605505</v>
+        <v>1.544221971054573</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.851198973709927</v>
+        <v>1.478300938792736</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.595560107692682</v>
+        <v>1.47579890729269</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.632383787693425</v>
+        <v>1.474386729429649</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.553299541438388</v>
+        <v>1.496349853623931</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.503364419241001</v>
+        <v>1.454085587236563</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.396185187130713</v>
+        <v>1.55295644343032</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.510232241714293</v>
+        <v>1.657808317410232</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.673123489211997</v>
+        <v>1.425668979071323</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.321728714091518</v>
+        <v>1.379520658152793</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.685554815581513</v>
+        <v>1.359528741909529</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.587290074138754</v>
+        <v>1.664442958294228</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.551115453970387</v>
+        <v>1.817378284987637</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.634081969294666</v>
+        <v>1.24483611591486</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.195972863977559</v>
+        <v>1.444154332716875</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.547318774947192</v>
+        <v>1.353911019031354</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.67937881165138</v>
+        <v>1.481701169199372</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.528774624072881</v>
+        <v>1.477738329583492</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.431459417622461</v>
+        <v>1.420527616895381</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.636304963180013</v>
+        <v>1.492128294094657</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.607293467158308</v>
+        <v>1.494023371267294</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.279877828107216</v>
+        <v>1.473193160774429</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.326717490283593</v>
+        <v>1.339742598650426</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.511807447766621</v>
+        <v>1.68118545523926</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.602583603106531</v>
+        <v>1.479877289349345</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.371364612473392</v>
+        <v>1.587563944409704</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.6515825634554</v>
+        <v>1.16491302431684</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.54300747160277</v>
+        <v>1.220375679262658</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.619725346296217</v>
+        <v>1.242449841726425</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.50140237125939</v>
+        <v>1.312814449424732</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.070463412994812</v>
+        <v>1.540773774630752</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.486279405861466</v>
+        <v>1.336980556948983</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.571773057538721</v>
+        <v>1.771055429000222</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.625040362730989</v>
+        <v>1.62383219971057</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.560274665057958</v>
+        <v>1.525184526065154</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.563263579700501</v>
+        <v>1.392192535725171</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.452139883364531</v>
+        <v>1.578780507395538</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.573648262074629</v>
+        <v>1.216541591499923</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.433301684658935</v>
+        <v>1.531829178924929</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.747673668667941</v>
+        <v>1.338487028112277</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.729366655645503</v>
+        <v>1.558403004327406</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.428430424938445</v>
+        <v>1.49591432155553</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.51517311588531</v>
+        <v>1.553559171076864</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.523669388675649</v>
+        <v>1.439775350055119</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.382562083165183</v>
+        <v>1.531616091838834</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.543284531869628</v>
+        <v>1.580297043286528</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1.40554469709536</v>
+        <v>1.546476545199535</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.582424739413222</v>
+        <v>1.438830294675214</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.442646484559228</v>
+        <v>1.51733992189319</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.426523445791229</v>
+        <v>1.68098142429541</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.697521608789669</v>
+        <v>1.145052108192661</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.540690438209672</v>
+        <v>1.349538841817673</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.7462183445568</v>
+        <v>1.558101115459956</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.713140792239742</v>
+        <v>1.285312391941171</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.563072959094524</v>
+        <v>1.533373236387829</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1.508303821699055</v>
+        <v>1.587245054539395</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.29255176655607</v>
+        <v>1.504164535950206</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.353005266139262</v>
+        <v>1.523774530286112</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.346094903733849</v>
+        <v>1.523277567584411</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.508379068662969</v>
+        <v>1.401163111640092</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.5273233770591</v>
+        <v>1.437344383514892</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.598394524058707</v>
+        <v>1.351495512162007</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.676999436486457</v>
+        <v>1.573196132666523</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.389947227779729</v>
+        <v>1.199330265867945</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.447937950702186</v>
+        <v>1.722549232490902</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.217485688295323</v>
+        <v>1.582896527064617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.340296448240147</v>
+        <v>1.600168746780422</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.622767683876492</v>
+        <v>1.443336448906036</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.551799553480192</v>
+        <v>1.639988039282711</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.512510001745325</v>
+        <v>1.718854451522089</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.703504443831311</v>
+        <v>1.533878655523583</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.582330516998431</v>
+        <v>1.785599532980673</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.632638907349858</v>
+        <v>1.282979709995007</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.417770160013139</v>
+        <v>1.548128332343236</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.503207147790956</v>
+        <v>1.451756196732347</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.330382612556374</v>
+        <v>1.576157904196425</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.552633387151184</v>
+        <v>1.56286642984111</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.482079171572401</v>
+        <v>1.604756694644553</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.639099478254592</v>
+        <v>1.330875987128215</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.406250738811356</v>
+        <v>1.490927983971668</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.311934144716906</v>
+        <v>1.192463941348892</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.444286941137285</v>
+        <v>1.322064533491169</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.616338732079562</v>
+        <v>1.627551565825322</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.525909961244794</v>
+        <v>1.475178076565707</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.841204953425193</v>
+        <v>1.662159252587643</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.241929904728271</v>
+        <v>1.38195885105073</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.632333130088266</v>
+        <v>1.30689480414256</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.466758209403318</v>
+        <v>1.407675149632835</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.520361777899774</v>
+        <v>1.667262100419393</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.600012530084648</v>
+        <v>1.69688691429811</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.471117815039496</v>
+        <v>1.51233509400799</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.292310236634567</v>
+        <v>1.380813729689331</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.405639851324592</v>
+        <v>1.584993353426625</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.711176992727154</v>
+        <v>1.424063193061668</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.429138944956695</v>
+        <v>1.329907442409625</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.390978196163563</v>
+        <v>1.511919819988995</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.510918824584413</v>
+        <v>1.3212763071717</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.495036841151229</v>
+        <v>1.583073563603075</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.359526741167857</v>
+        <v>1.284347020384089</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.462989584087704</v>
+        <v>1.23702231103075</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.368444576829065</v>
+        <v>1.420102416069269</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.480626998308163</v>
+        <v>1.485175182572055</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.27138233013956</v>
+        <v>1.420675364234889</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.105285557097035</v>
+        <v>1.582606344360471</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.744475789543823</v>
+        <v>1.558071048392534</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.664459127859079</v>
+        <v>1.33362153707851</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.465888080977519</v>
+        <v>1.7460588647163</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.693602644520756</v>
+        <v>1.346787740442341</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.512438512772509</v>
+        <v>1.552022748999677</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.49181085672795</v>
+        <v>1.314581402223985</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.669344396968547</v>
+        <v>1.510878064026472</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.466178630426486</v>
+        <v>1.82806462651756</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.568676894719157</v>
+        <v>1.62488874945389</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.611898850026378</v>
+        <v>1.577924482503201</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.957687351696971</v>
+        <v>1.541440503168352</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.383201679030016</v>
+        <v>1.295767313870125</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.548842304350696</v>
+        <v>1.726423865528795</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.589407833435731</v>
+        <v>1.464658532386242</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.52271292065175</v>
+        <v>1.653403609658536</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.599087854540143</v>
+        <v>1.439212655159805</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.385687197638016</v>
+        <v>1.506229121172106</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.585495433022812</v>
+        <v>1.446460061156965</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.612993665889928</v>
+        <v>1.567978282217179</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.642532984889117</v>
+        <v>1.477093357944473</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.399084413933165</v>
+        <v>1.59699540578611</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.631139133623251</v>
+        <v>1.393349043017283</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.513523701749679</v>
+        <v>1.596225171742977</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.287633661767915</v>
+        <v>1.772862213283502</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.47889933781357</v>
+        <v>1.449377577896716</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.459562958445181</v>
+        <v>1.578935061299884</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.132156411269942</v>
+        <v>1.714661158152566</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.330064202338848</v>
+        <v>1.590897263344921</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.451435287946939</v>
+        <v>1.413796583561387</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.623931608485875</v>
+        <v>1.203290760582626</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.442326871320599</v>
+        <v>1.367380247958163</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.370872349589513</v>
+        <v>1.395416459507253</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.286169621372542</v>
+        <v>1.196521642190631</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.690046499792228</v>
+        <v>1.845338314119974</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.439562234283812</v>
+        <v>1.47787673903476</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.482353522724919</v>
+        <v>1.474878923337842</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.563115915251977</v>
+        <v>1.350142623872174</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.519952359125681</v>
+        <v>1.482408013911592</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.620434798959017</v>
+        <v>1.728101798392474</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.647550224273913</v>
+        <v>1.468396976797696</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.520206285888953</v>
+        <v>1.366573349128045</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.238916646136327</v>
+        <v>1.74592986527979</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.362623137302121</v>
+        <v>1.500985154088993</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.627228172682281</v>
+        <v>1.385856958132688</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.410840688219734</v>
+        <v>1.40918177300726</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.871919258493603</v>
+        <v>1.324488785444534</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.64833118745888</v>
+        <v>1.590118563018196</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.35292956839689</v>
+        <v>1.461990813993624</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.391365589318403</v>
+        <v>1.712270036045495</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.52644143667638</v>
+        <v>1.402578622169323</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.549749595659057</v>
+        <v>1.696288028904096</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.559593763416298</v>
+        <v>1.490107212299137</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.798602283627033</v>
+        <v>1.804648578038241</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.745437893740622</v>
+        <v>1.521271280362935</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.3872581757219</v>
+        <v>1.428584799837918</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.646628852882948</v>
+        <v>1.311819295348846</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.253198914180035</v>
+        <v>1.482130703645626</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.681498400815479</v>
+        <v>1.362037894508838</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.394707396412746</v>
+        <v>1.59201984151867</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.635008413866572</v>
+        <v>1.264274322223273</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.43185589825144</v>
+        <v>1.412480021954323</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.455687232000085</v>
+        <v>1.338710636470863</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.390937376168514</v>
+        <v>1.532561385067827</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.604457683696379</v>
+        <v>1.584293529944775</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.785905966587482</v>
+        <v>1.571687457054564</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.517328973865776</v>
+        <v>1.417599755437436</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.544133512478036</v>
+        <v>1.624119596442851</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.476709011965128</v>
+        <v>1.67168793825337</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.651708150960693</v>
+        <v>1.464167389675234</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.571492405632011</v>
+        <v>1.462986916836712</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.530964846951241</v>
+        <v>1.410359545891044</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.530641483168558</v>
+        <v>1.425450829832039</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.249800537238273</v>
+        <v>1.544436071341492</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.577199782596178</v>
+        <v>1.528197428089474</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.367338770000701</v>
+        <v>1.494589737780829</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.599859887887302</v>
+        <v>1.568490198836765</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.469962592810008</v>
+        <v>1.562816940300623</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.435952931745728</v>
+        <v>1.608752051070703</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.402113096478805</v>
+        <v>1.66984954631126</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.620604510217689</v>
+        <v>1.55535440589985</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.598050655434953</v>
+        <v>1.399726628894674</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.501656776151079</v>
+        <v>1.588006050151334</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.546700617704649</v>
+        <v>1.359205147504132</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.663200425224999</v>
+        <v>1.547862355429044</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.377445627719029</v>
+        <v>1.661930968762722</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.966771563486063</v>
+        <v>1.716371760397419</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.397801260051333</v>
+        <v>1.341303657932345</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.25761246694689</v>
+        <v>1.354457250222492</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.491587688231266</v>
+        <v>1.299786884501216</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.415528645011638</v>
+        <v>1.674753173261098</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.288432827633769</v>
+        <v>1.767290821978827</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.596283107118488</v>
+        <v>1.264562648802933</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.56900155474291</v>
+        <v>1.385957711768148</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.286119895598287</v>
+        <v>1.503596461406941</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.451903612631984</v>
+        <v>1.454826960850442</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.408959935500419</v>
+        <v>1.462743833721217</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.507410943378096</v>
+        <v>1.523532707375342</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.443710079339265</v>
+        <v>1.51788772803701</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.556542430598316</v>
+        <v>1.592584640418037</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.567085171301545</v>
+        <v>1.302229905635552</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.820168047294126</v>
+        <v>1.745485050395501</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.589712264076694</v>
+        <v>1.60190830917521</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.47038525037403</v>
+        <v>1.535472719445287</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.172762738779372</v>
+        <v>1.724121320042932</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.747976527426624</v>
+        <v>1.494946381324926</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.689809829523144</v>
+        <v>1.551510220301319</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>1.700831314349765</v>
+        <v>1.360854081981441</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.089946764319732</v>
+        <v>1.580065352520331</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.620059629257179</v>
+        <v>1.643351945970399</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.264358554539211</v>
+        <v>1.634088889243848</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.134960342826908</v>
+        <v>1.333210470706849</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.548761451273163</v>
+        <v>1.547361238371759</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.535665371437428</v>
+        <v>1.57850778108239</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.377180858407391</v>
+        <v>1.463994910259728</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.863940592599602</v>
+        <v>1.617699777062462</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.647900622515043</v>
+        <v>1.613397836157414</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.444546579862548</v>
+        <v>1.287012203660088</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.56779524698708</v>
+        <v>1.348751516399105</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.398021153131385</v>
+        <v>1.175546979520692</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.3519632302396</v>
+        <v>1.78643239302034</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.472817504312387</v>
+        <v>1.577480318979606</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.432110809612567</v>
+        <v>1.664501922346141</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.607883559768973</v>
+        <v>1.773140200771716</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.346028387357008</v>
+        <v>1.472923691113148</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.56409827512613</v>
+        <v>1.620398595659944</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.738286182790725</v>
+        <v>1.580511373059168</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.641839792772032</v>
+        <v>1.466362970248781</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.478132784825173</v>
+        <v>1.45044866732859</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.319060469710133</v>
+        <v>1.34745569593846</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.893031712180964</v>
+        <v>1.476735686777801</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.414199735131702</v>
+        <v>1.442596281027007</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.524188739216754</v>
+        <v>1.376435006640305</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.5144821317442</v>
+        <v>1.70234305467245</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.279314209448112</v>
+        <v>1.442631648907474</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.662118694057468</v>
+        <v>1.444186533713544</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.301353362232971</v>
+        <v>1.487299324467764</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.130536806943369</v>
+        <v>1.395393927209713</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.477205824859612</v>
+        <v>1.565688130753173</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.678186474023046</v>
+        <v>1.707756004885315</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.591292559944344</v>
+        <v>1.475930922679749</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.470411829008146</v>
+        <v>1.582679917239953</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.767576900630628</v>
+        <v>1.381945153711589</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.506453974043805</v>
+        <v>1.48255658684558</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.281304339051312</v>
+        <v>1.337400122565947</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.405868082571882</v>
+        <v>1.606715893320811</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/09_localizer.xlsx
+++ b/sequences/09_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.567345416280976</v>
+        <v>1.832018392797262</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.748982435520094</v>
+        <v>1.242156388191124</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.576120589101312</v>
+        <v>1.701296096962182</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.605896058626487</v>
+        <v>1.520133787484293</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.478416231015514</v>
+        <v>1.667235579638918</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.451623582354245</v>
+        <v>1.413260090511767</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.467191195718546</v>
+        <v>1.350651226059182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.544221971054573</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.478300938792736</v>
+        <v>1.442341194663755</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.47579890729269</v>
+        <v>1.501406729095534</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.474386729429649</v>
+        <v>1.408311153741105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.496349853623931</v>
+        <v>1.656698072996229</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.454085587236563</v>
+        <v>1.647391768018143</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.55295644343032</v>
+        <v>1.843071395527982</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.657808317410232</v>
+        <v>1.209452505632352</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.425668979071323</v>
+        <v>1.45622747627001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.379520658152793</v>
+        <v>1.397317385000023</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.359528741909529</v>
+        <v>1.487977239947774</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.664442958294228</v>
+        <v>1.390021989005513</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.817378284987637</v>
+        <v>1.42972172769279</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.24483611591486</v>
+        <v>1.530193086522827</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.444154332716875</v>
+        <v>1.486469022362291</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.353911019031354</v>
+        <v>1.494891747975918</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.481701169199372</v>
+        <v>1.477308624853799</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.477738329583492</v>
+        <v>1.459157786706304</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.420527616895381</v>
+        <v>1.649539002600085</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.492128294094657</v>
+        <v>1.60806311552388</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.494023371267294</v>
+        <v>1.360735638511147</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.473193160774429</v>
+        <v>1.707282597965537</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.339742598650426</v>
+        <v>1.154115969286919</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.68118545523926</v>
+        <v>1.814303787691657</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.479877289349345</v>
+        <v>1.495039652107301</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.587563944409704</v>
+        <v>1.769774311686612</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.16491302431684</v>
+        <v>1.430918684081411</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.220375679262658</v>
+        <v>1.335190282463448</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.242449841726425</v>
+        <v>1.554568946987099</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.312814449424732</v>
+        <v>1.440285713657812</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.540773774630752</v>
+        <v>1.716907390426444</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.336980556948983</v>
+        <v>1.393199222400778</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.771055429000222</v>
+        <v>1.568796679546717</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.62383219971057</v>
+        <v>1.532620014219532</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.525184526065154</v>
+        <v>1.400707409651708</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.392192535725171</v>
+        <v>1.588346138533548</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.578780507395538</v>
+        <v>1.47643330339635</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.216541591499923</v>
+        <v>1.630537762662017</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.531829178924929</v>
+        <v>1.821173745386475</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.338487028112277</v>
+        <v>1.72410028710575</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.558403004327406</v>
+        <v>1.460101980753728</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.49591432155553</v>
+        <v>1.332786407907624</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.553559171076864</v>
+        <v>1.403669429244659</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.439775350055119</v>
+        <v>1.610476059493172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.531616091838834</v>
+        <v>1.316778410289367</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1.580297043286528</v>
+        <v>1.66676647788693</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1.546476545199535</v>
+        <v>1.552497160260657</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.438830294675214</v>
+        <v>1.445287947364156</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.51733992189319</v>
+        <v>1.712190672584838</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.68098142429541</v>
+        <v>1.349795832704997</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.145052108192661</v>
+        <v>1.678251839026951</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.349538841817673</v>
+        <v>1.406646078614814</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.558101115459956</v>
+        <v>1.507151020920123</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.285312391941171</v>
+        <v>1.605220317188676</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.533373236387829</v>
+        <v>1.343834616818236</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.587245054539395</v>
+        <v>1.546320240434853</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.504164535950206</v>
+        <v>1.930212104415708</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.523774530286112</v>
+        <v>1.405480316966708</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1.523277567584411</v>
+        <v>1.444618642135109</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.401163111640092</v>
+        <v>1.347256319774702</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.437344383514892</v>
+        <v>1.524877748932679</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.351495512162007</v>
+        <v>1.416767189549417</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.573196132666523</v>
+        <v>1.532157611403016</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.199330265867945</v>
+        <v>1.417506251379009</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.722549232490902</v>
+        <v>1.701527316957019</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.582896527064617</v>
+        <v>1.645439632870759</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.600168746780422</v>
+        <v>1.532449498339002</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.443336448906036</v>
+        <v>1.49635975577888</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.639988039282711</v>
+        <v>1.548405216906283</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.718854451522089</v>
+        <v>1.134269466936436</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.533878655523583</v>
+        <v>1.679428078155344</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.785599532980673</v>
+        <v>1.422361128568034</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.282979709995007</v>
+        <v>1.582589530561483</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.548128332343236</v>
+        <v>1.606796360609794</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.451756196732347</v>
+        <v>1.434837297431094</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.576157904196425</v>
+        <v>1.419942106524857</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.56286642984111</v>
+        <v>1.453914446768873</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.604756694644553</v>
+        <v>1.512417927937895</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.330875987128215</v>
+        <v>1.37120510236382</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.490927983971668</v>
+        <v>1.549442606365008</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.192463941348892</v>
+        <v>1.549223633734353</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.322064533491169</v>
+        <v>1.672486962574508</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.627551565825322</v>
+        <v>1.561981165351078</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.475178076565707</v>
+        <v>1.391603158730271</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.662159252587643</v>
+        <v>1.426644533903454</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.38195885105073</v>
+        <v>1.485933341684236</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.30689480414256</v>
+        <v>1.451003787405768</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.407675149632835</v>
+        <v>1.646334258066771</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.667262100419393</v>
+        <v>1.595291301878105</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.69688691429811</v>
+        <v>1.60097479145975</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.51233509400799</v>
+        <v>1.594841151185806</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.380813729689331</v>
+        <v>1.639975128789432</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.584993353426625</v>
+        <v>1.477869262971947</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.424063193061668</v>
+        <v>1.440193037326753</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.329907442409625</v>
+        <v>1.565029457469149</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.511919819988995</v>
+        <v>1.294358688457439</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.3212763071717</v>
+        <v>1.847741571063815</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.583073563603075</v>
+        <v>1.704599391349579</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.284347020384089</v>
+        <v>1.529490787432964</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.23702231103075</v>
+        <v>1.504172137590503</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.420102416069269</v>
+        <v>1.566042422930863</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.485175182572055</v>
+        <v>1.349282085982651</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.420675364234889</v>
+        <v>1.493666593409971</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.582606344360471</v>
+        <v>1.468951231623048</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.558071048392534</v>
+        <v>1.53463706012583</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.33362153707851</v>
+        <v>1.653514625037918</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.7460588647163</v>
+        <v>1.57659255922059</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.346787740442341</v>
+        <v>1.350774988246261</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.552022748999677</v>
+        <v>1.571682872030091</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.314581402223985</v>
+        <v>1.390611154449688</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.510878064026472</v>
+        <v>1.637706393892259</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.82806462651756</v>
+        <v>1.328179035192498</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.62488874945389</v>
+        <v>1.363131173585588</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.577924482503201</v>
+        <v>1.427717082577241</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.541440503168352</v>
+        <v>1.287076902182865</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.295767313870125</v>
+        <v>1.285328975886422</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.726423865528795</v>
+        <v>1.533859855774322</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.464658532386242</v>
+        <v>1.497400305565464</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.653403609658536</v>
+        <v>1.296160461682668</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.439212655159805</v>
+        <v>1.624472082638125</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.506229121172106</v>
+        <v>1.641543967349392</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.446460061156965</v>
+        <v>1.802245212331635</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.567978282217179</v>
+        <v>1.616885106628563</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.477093357944473</v>
+        <v>1.379096282344579</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.59699540578611</v>
+        <v>1.721927996168303</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.393349043017283</v>
+        <v>1.682102020213657</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.596225171742977</v>
+        <v>1.557297846255397</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.772862213283502</v>
+        <v>1.259238683364525</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.449377577896716</v>
+        <v>1.577002724513159</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.578935061299884</v>
+        <v>1.646308753717459</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.714661158152566</v>
+        <v>1.552320303677354</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.590897263344921</v>
+        <v>1.412809596814848</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.413796583561387</v>
+        <v>1.451087671880955</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.203290760582626</v>
+        <v>1.723344416178155</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.367380247958163</v>
+        <v>1.487487345216241</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.395416459507253</v>
+        <v>1.596908449311625</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.196521642190631</v>
+        <v>1.501947370445349</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.845338314119974</v>
+        <v>1.709175060631728</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.47787673903476</v>
+        <v>1.763161608502298</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.474878923337842</v>
+        <v>1.561217122848749</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.350142623872174</v>
+        <v>1.470004725541644</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.482408013911592</v>
+        <v>1.733128934635127</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.728101798392474</v>
+        <v>1.252705745337717</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.468396976797696</v>
+        <v>1.893237571496798</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.366573349128045</v>
+        <v>1.664651432818627</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.74592986527979</v>
+        <v>1.397618647310536</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.500985154088993</v>
+        <v>1.579397104651693</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.385856958132688</v>
+        <v>1.53978585845255</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.40918177300726</v>
+        <v>1.526528672998157</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.324488785444534</v>
+        <v>1.675054812896691</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.590118563018196</v>
+        <v>1.584517102597834</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.461990813993624</v>
+        <v>1.514876848378117</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.712270036045495</v>
+        <v>1.422133804746875</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.402578622169323</v>
+        <v>1.887931328695206</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.696288028904096</v>
+        <v>1.31931610932698</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.490107212299137</v>
+        <v>1.257079300772732</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.804648578038241</v>
+        <v>1.161926533481397</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.521271280362935</v>
+        <v>1.777701805398868</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.428584799837918</v>
+        <v>1.194996863450642</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.311819295348846</v>
+        <v>1.601497413900005</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.482130703645626</v>
+        <v>1.382959996437914</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.362037894508838</v>
+        <v>1.254927518198712</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.59201984151867</v>
+        <v>1.362551339017136</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.264274322223273</v>
+        <v>1.505616073211828</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.412480021954323</v>
+        <v>1.580160809990596</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.338710636470863</v>
+        <v>1.266676691533128</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.532561385067827</v>
+        <v>1.2286218955619</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.584293529944775</v>
+        <v>1.451001400838149</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.571687457054564</v>
+        <v>1.758520290374023</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.417599755437436</v>
+        <v>1.820523653648954</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.624119596442851</v>
+        <v>1.328563805225442</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.67168793825337</v>
+        <v>1.625758340783356</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.464167389675234</v>
+        <v>1.430914531998096</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.462986916836712</v>
+        <v>1.359792760679533</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.410359545891044</v>
+        <v>1.200574036807819</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.425450829832039</v>
+        <v>1.496893566760555</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.544436071341492</v>
+        <v>1.529061935964702</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.528197428089474</v>
+        <v>1.356765874857823</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.494589737780829</v>
+        <v>1.148619906751222</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.568490198836765</v>
+        <v>1.555611392020013</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.562816940300623</v>
+        <v>1.472778057043475</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.608752051070703</v>
+        <v>1.399053357124819</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.66984954631126</v>
+        <v>1.806290465702242</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.55535440589985</v>
+        <v>1.726232654342694</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.399726628894674</v>
+        <v>1.515124647381632</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.588006050151334</v>
+        <v>1.45809207357266</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.359205147504132</v>
+        <v>1.52561027988589</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.547862355429044</v>
+        <v>1.409291859615491</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.661930968762722</v>
+        <v>1.606082032550791</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.716371760397419</v>
+        <v>1.559849458764509</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.341303657932345</v>
+        <v>1.68740602235819</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.354457250222492</v>
+        <v>1.461909979570885</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.299786884501216</v>
+        <v>1.681423408885149</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.674753173261098</v>
+        <v>1.367684059916837</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.767290821978827</v>
+        <v>1.33172348757477</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.264562648802933</v>
+        <v>1.573099302357372</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.385957711768148</v>
+        <v>1.285386846326958</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.503596461406941</v>
+        <v>1.208145814588075</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.454826960850442</v>
+        <v>1.398280617398217</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.462743833721217</v>
+        <v>1.377286974322883</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.523532707375342</v>
+        <v>1.361565216473209</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.51788772803701</v>
+        <v>1.469757977514799</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.592584640418037</v>
+        <v>1.36726781536491</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.302229905635552</v>
+        <v>1.764304699924625</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.745485050395501</v>
+        <v>1.615807641621782</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.60190830917521</v>
+        <v>1.683780847480439</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.535472719445287</v>
+        <v>1.161519134732292</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.724121320042932</v>
+        <v>1.298479270944597</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.494946381324926</v>
+        <v>1.471041855952602</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.551510220301319</v>
+        <v>1.623754546030629</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.360854081981441</v>
+        <v>1.515131572934403</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.580065352520331</v>
+        <v>1.526554256192796</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.643351945970399</v>
+        <v>1.580155177867284</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.634088889243848</v>
+        <v>1.689268842577998</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.333210470706849</v>
+        <v>1.595396371204062</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.547361238371759</v>
+        <v>1.422412904931626</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.57850778108239</v>
+        <v>1.478200487677714</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.463994910259728</v>
+        <v>1.278626491659987</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.617699777062462</v>
+        <v>1.70255919131635</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.613397836157414</v>
+        <v>1.499715392861582</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.287012203660088</v>
+        <v>1.665223539538235</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.348751516399105</v>
+        <v>1.429423288545921</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.175546979520692</v>
+        <v>1.521355865201598</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.78643239302034</v>
+        <v>1.590059529570626</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.577480318979606</v>
+        <v>1.419295497455381</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.664501922346141</v>
+        <v>1.520245727802473</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.773140200771716</v>
+        <v>1.505372895533831</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.472923691113148</v>
+        <v>1.210047594376556</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.620398595659944</v>
+        <v>1.549395763410545</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.580511373059168</v>
+        <v>1.41842026468538</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.466362970248781</v>
+        <v>1.548931013415648</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.45044866732859</v>
+        <v>1.545353941271722</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.34745569593846</v>
+        <v>1.568293120913615</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.476735686777801</v>
+        <v>1.304418751516341</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.442596281027007</v>
+        <v>1.572074944224469</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.376435006640305</v>
+        <v>1.787217425730846</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.70234305467245</v>
+        <v>1.423970327559306</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.442631648907474</v>
+        <v>1.620399195325167</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.444186533713544</v>
+        <v>1.574429427046715</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.487299324467764</v>
+        <v>1.37181763069115</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.395393927209713</v>
+        <v>1.79527218479148</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.565688130753173</v>
+        <v>1.597456342895136</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.707756004885315</v>
+        <v>1.329405055330361</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.475930922679749</v>
+        <v>1.390848906526802</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.582679917239953</v>
+        <v>1.766358667350866</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.381945153711589</v>
+        <v>1.373590279511154</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.48255658684558</v>
+        <v>1.71070777942827</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.337400122565947</v>
+        <v>1.357761359657662</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.606715893320811</v>
+        <v>1.65036780760327</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/09_localizer.xlsx
+++ b/sequences/09_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
   </si>
   <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
   </si>
   <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
+    <t>house/house077.jpg</t>
   </si>
   <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>face/face085.jpg</t>
   </si>
   <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
-    <t>dog/dog095.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.832018392797262</v>
+        <v>1.709813440467321</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.242156388191124</v>
+        <v>1.460414876095609</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.701296096962182</v>
+        <v>1.4746006989688</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.520133787484293</v>
+        <v>1.637531080617437</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.667235579638918</v>
+        <v>1.576357183005305</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.413260090511767</v>
+        <v>1.405917731163374</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.350651226059182</v>
+        <v>1.573414503512603</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1.537647171537098</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.442341194663755</v>
+        <v>1.69279613048433</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.501406729095534</v>
+        <v>1.483372625687736</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.408311153741105</v>
+        <v>1.269687582535358</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.656698072996229</v>
+        <v>1.326830031367356</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.647391768018143</v>
+        <v>1.677514226094753</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.843071395527982</v>
+        <v>1.659627688770779</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.209452505632352</v>
+        <v>1.527637392879677</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.45622747627001</v>
+        <v>1.534780979010167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.397317385000023</v>
+        <v>1.478625125516351</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.487977239947774</v>
+        <v>1.63417277398642</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.390021989005513</v>
+        <v>1.308591590668595</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.42972172769279</v>
+        <v>1.437396611273479</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.530193086522827</v>
+        <v>1.641514242587649</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.486469022362291</v>
+        <v>1.237280087219272</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.494891747975918</v>
+        <v>1.386471382630206</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.477308624853799</v>
+        <v>1.384493282311864</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.459157786706304</v>
+        <v>1.510825137434043</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.649539002600085</v>
+        <v>1.815690140264373</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.60806311552388</v>
+        <v>1.470688627884639</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.360735638511147</v>
+        <v>1.567754764419115</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.707282597965537</v>
+        <v>1.684866531473092</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.154115969286919</v>
+        <v>1.388159295381195</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.814303787691657</v>
+        <v>1.344343207065302</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.495039652107301</v>
+        <v>1.659345395008437</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.769774311686612</v>
+        <v>1.389284637330464</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.430918684081411</v>
+        <v>1.58969232891499</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.335190282463448</v>
+        <v>1.216718979375033</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.554568946987099</v>
+        <v>1.683545768626401</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.440285713657812</v>
+        <v>1.47025321263444</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.716907390426444</v>
+        <v>1.645165049070048</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.393199222400778</v>
+        <v>1.47772786236918</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.568796679546717</v>
+        <v>1.531826709042891</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.532620014219532</v>
+        <v>1.504465448835121</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.400707409651708</v>
+        <v>1.347338507506962</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.588346138533548</v>
+        <v>1.316304524093609</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.47643330339635</v>
+        <v>1.542337485401253</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.630537762662017</v>
+        <v>1.558941921182676</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.821173745386475</v>
+        <v>1.560113430317066</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.72410028710575</v>
+        <v>1.481686721205962</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.460101980753728</v>
+        <v>1.519384451050877</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.332786407907624</v>
+        <v>1.397742363675668</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.403669429244659</v>
+        <v>1.368510899787379</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.610476059493172</v>
+        <v>1.611765355045055</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.316778410289367</v>
+        <v>1.273137107703148</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.66676647788693</v>
+        <v>1.59752887059229</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.552497160260657</v>
+        <v>1.721077421624538</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.445287947364156</v>
+        <v>1.557832008966351</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.712190672584838</v>
+        <v>1.319059786912512</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.349795832704997</v>
+        <v>1.478266605285479</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.678251839026951</v>
+        <v>1.278700588076684</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.406646078614814</v>
+        <v>1.581650200689189</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.507151020920123</v>
+        <v>1.488306429602824</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.605220317188676</v>
+        <v>1.445403317515152</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.343834616818236</v>
+        <v>1.464612500888596</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.546320240434853</v>
+        <v>1.673739433798296</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.930212104415708</v>
+        <v>1.243548132507818</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.405480316966708</v>
+        <v>1.824373316527325</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.444618642135109</v>
+        <v>1.577002526648793</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.347256319774702</v>
+        <v>1.558755411401654</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.524877748932679</v>
+        <v>1.602660566088957</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.416767189549417</v>
+        <v>1.33935739609668</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.532157611403016</v>
+        <v>1.634226716559575</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.417506251379009</v>
+        <v>1.358405432973991</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.701527316957019</v>
+        <v>1.756463647898676</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.645439632870759</v>
+        <v>1.390731598101575</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.532449498339002</v>
+        <v>1.595250733506653</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.49635975577888</v>
+        <v>1.68512826626896</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.548405216906283</v>
+        <v>1.559014815001081</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.134269466936436</v>
+        <v>1.490817552056567</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.679428078155344</v>
+        <v>1.815119243046925</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.422361128568034</v>
+        <v>1.667008761983843</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.582589530561483</v>
+        <v>1.599937415648609</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.606796360609794</v>
+        <v>1.749919985057966</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.434837297431094</v>
+        <v>1.495178411122203</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.419942106524857</v>
+        <v>1.382425987053291</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.453914446768873</v>
+        <v>1.378753880310121</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.512417927937895</v>
+        <v>1.706025944255684</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.37120510236382</v>
+        <v>1.644873695487843</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.549442606365008</v>
+        <v>1.351444530248227</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.549223633734353</v>
+        <v>1.53689523075942</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.672486962574508</v>
+        <v>1.485469242920833</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.561981165351078</v>
+        <v>1.711407260627863</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.391603158730271</v>
+        <v>1.535418776895168</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.426644533903454</v>
+        <v>1.343481773627411</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.485933341684236</v>
+        <v>1.603241506047564</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.451003787405768</v>
+        <v>1.598847202848516</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1.646334258066771</v>
+        <v>1.457755532656753</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.595291301878105</v>
+        <v>1.566333947081781</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.60097479145975</v>
+        <v>1.741409212693939</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.594841151185806</v>
+        <v>1.586174777525603</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.639975128789432</v>
+        <v>1.787859889566721</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.477869262971947</v>
+        <v>1.847257581502189</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.440193037326753</v>
+        <v>1.480899907218514</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.565029457469149</v>
+        <v>1.28408715930882</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.294358688457439</v>
+        <v>1.335400437994926</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.847741571063815</v>
+        <v>1.391129263005555</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.704599391349579</v>
+        <v>1.484386189215642</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.529490787432964</v>
+        <v>1.597350999557448</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.504172137590503</v>
+        <v>1.405879159270019</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.566042422930863</v>
+        <v>1.584076888044001</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.349282085982651</v>
+        <v>1.443898491437518</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.493666593409971</v>
+        <v>1.507018431451084</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.468951231623048</v>
+        <v>1.676405661862346</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.53463706012583</v>
+        <v>1.347383170872526</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.653514625037918</v>
+        <v>1.225428937098208</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.57659255922059</v>
+        <v>1.584683915909695</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.350774988246261</v>
+        <v>1.553790850240043</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.571682872030091</v>
+        <v>1.545184765692496</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.390611154449688</v>
+        <v>1.387022358295948</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.637706393892259</v>
+        <v>1.653055246697238</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.328179035192498</v>
+        <v>1.391777564235562</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.363131173585588</v>
+        <v>1.416085590587405</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.427717082577241</v>
+        <v>1.606070696517237</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.287076902182865</v>
+        <v>1.482562940324327</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.285328975886422</v>
+        <v>1.565161548408373</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.533859855774322</v>
+        <v>1.639146888370541</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.497400305565464</v>
+        <v>1.449470707255694</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.296160461682668</v>
+        <v>1.630839472905802</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.624472082638125</v>
+        <v>1.593892364595127</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.641543967349392</v>
+        <v>1.279734652383814</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.802245212331635</v>
+        <v>1.105023884370141</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.616885106628563</v>
+        <v>1.405928537569825</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.379096282344579</v>
+        <v>1.137425067311566</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.721927996168303</v>
+        <v>1.441914231644808</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.682102020213657</v>
+        <v>1.367701725115692</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.557297846255397</v>
+        <v>1.655729762584695</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.259238683364525</v>
+        <v>1.263202182886614</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.577002724513159</v>
+        <v>1.493208028167984</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.646308753717459</v>
+        <v>1.48539079758059</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.552320303677354</v>
+        <v>1.377547549855726</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.412809596814848</v>
+        <v>1.577627743273369</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.451087671880955</v>
+        <v>1.668359797111348</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.723344416178155</v>
+        <v>1.290551432990544</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.487487345216241</v>
+        <v>1.401141152173323</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.596908449311625</v>
+        <v>1.609724354076021</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.501947370445349</v>
+        <v>1.637734783551571</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.709175060631728</v>
+        <v>1.305128736833982</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.763161608502298</v>
+        <v>1.427103207916908</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.561217122848749</v>
+        <v>1.429284354257476</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.470004725541644</v>
+        <v>1.697769032198513</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.733128934635127</v>
+        <v>1.414502802148892</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.252705745337717</v>
+        <v>1.312696190817909</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.893237571496798</v>
+        <v>1.849230715225569</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.664651432818627</v>
+        <v>1.399710607381282</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.397618647310536</v>
+        <v>1.708190487456454</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.579397104651693</v>
+        <v>1.714938619582048</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.53978585845255</v>
+        <v>1.515838509229894</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.526528672998157</v>
+        <v>1.4257428488585</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.675054812896691</v>
+        <v>1.626150324082275</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.584517102597834</v>
+        <v>1.391777719615178</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.514876848378117</v>
+        <v>1.449675164402775</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.422133804746875</v>
+        <v>1.437663636811485</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.887931328695206</v>
+        <v>1.890700868425509</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.31931610932698</v>
+        <v>1.658476122836596</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.257079300772732</v>
+        <v>1.714282048197018</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.161926533481397</v>
+        <v>1.489727014367829</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.777701805398868</v>
+        <v>1.40108409567373</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.194996863450642</v>
+        <v>1.462747830747021</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.601497413900005</v>
+        <v>1.53455136792953</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.382959996437914</v>
+        <v>1.621124447760256</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.254927518198712</v>
+        <v>1.567343946010395</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.362551339017136</v>
+        <v>1.514001104709705</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.505616073211828</v>
+        <v>1.563952672149537</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.580160809990596</v>
+        <v>1.505233960178695</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.266676691533128</v>
+        <v>1.576409751285615</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.2286218955619</v>
+        <v>1.728419501869376</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.451001400838149</v>
+        <v>1.767452441133845</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.758520290374023</v>
+        <v>1.555922336700795</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.820523653648954</v>
+        <v>1.424117969377881</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.328563805225442</v>
+        <v>1.606768003558741</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.625758340783356</v>
+        <v>1.629570034030303</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.430914531998096</v>
+        <v>1.35728136111681</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.359792760679533</v>
+        <v>1.436537473936658</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.200574036807819</v>
+        <v>1.576925466839572</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.496893566760555</v>
+        <v>1.508110998199733</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.529061935964702</v>
+        <v>1.41037014139475</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.356765874857823</v>
+        <v>1.356306092292808</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.148619906751222</v>
+        <v>1.253649585666685</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.555611392020013</v>
+        <v>1.483663791027826</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.472778057043475</v>
+        <v>1.436794211678802</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.399053357124819</v>
+        <v>1.404068675613706</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.806290465702242</v>
+        <v>1.466804274201831</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.726232654342694</v>
+        <v>1.590847327466356</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.515124647381632</v>
+        <v>1.577214790332171</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.45809207357266</v>
+        <v>1.486644513104487</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.52561027988589</v>
+        <v>1.722420503631612</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.409291859615491</v>
+        <v>1.285523380057476</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.606082032550791</v>
+        <v>1.615825853915995</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.559849458764509</v>
+        <v>1.324522167397534</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.68740602235819</v>
+        <v>1.37130728107159</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.461909979570885</v>
+        <v>1.813756718633857</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.681423408885149</v>
+        <v>1.944783351787952</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.367684059916837</v>
+        <v>1.386393851567939</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.33172348757477</v>
+        <v>1.472425927985526</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.573099302357372</v>
+        <v>1.446821382572066</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.285386846326958</v>
+        <v>1.506036360277216</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.208145814588075</v>
+        <v>1.518867406687288</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.398280617398217</v>
+        <v>1.759884235871801</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.377286974322883</v>
+        <v>1.536779956937963</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.361565216473209</v>
+        <v>1.32256011315225</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.469757977514799</v>
+        <v>1.460828849432289</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.36726781536491</v>
+        <v>1.531326004074219</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.764304699924625</v>
+        <v>1.249161711299068</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.615807641621782</v>
+        <v>1.571240409330208</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.683780847480439</v>
+        <v>1.633528432413734</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.161519134732292</v>
+        <v>1.484007720278943</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.298479270944597</v>
+        <v>1.526894323086414</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.471041855952602</v>
+        <v>1.500011855646173</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.623754546030629</v>
+        <v>1.439185614431109</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.515131572934403</v>
+        <v>1.468575511282564</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.526554256192796</v>
+        <v>1.501344717685632</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.580155177867284</v>
+        <v>1.502646535858559</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.689268842577998</v>
+        <v>1.491474696386875</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.595396371204062</v>
+        <v>1.635850671661644</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.422412904931626</v>
+        <v>1.361686082991787</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.478200487677714</v>
+        <v>1.641947462803875</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.278626491659987</v>
+        <v>1.497244108675635</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.70255919131635</v>
+        <v>1.363681671744633</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.499715392861582</v>
+        <v>1.477479934443175</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.665223539538235</v>
+        <v>1.857459234434897</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.429423288545921</v>
+        <v>1.317659335040877</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.521355865201598</v>
+        <v>1.497985255960711</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.590059529570626</v>
+        <v>1.499018958723971</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.419295497455381</v>
+        <v>1.489199655659333</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>1.520245727802473</v>
+        <v>1.301340986237265</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.505372895533831</v>
+        <v>1.796213435321917</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.210047594376556</v>
+        <v>1.470841900471741</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.549395763410545</v>
+        <v>1.427178926589071</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.41842026468538</v>
+        <v>1.326536267421464</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.548931013415648</v>
+        <v>1.659910600010267</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.545353941271722</v>
+        <v>1.548620451154477</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.568293120913615</v>
+        <v>1.480735997911291</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.304418751516341</v>
+        <v>1.659017485349644</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.572074944224469</v>
+        <v>1.309923599021004</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.787217425730846</v>
+        <v>1.471042469123917</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.423970327559306</v>
+        <v>1.766752687246615</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.620399195325167</v>
+        <v>1.634023837059952</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.574429427046715</v>
+        <v>1.65287920749897</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.37181763069115</v>
+        <v>1.536273291800142</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.79527218479148</v>
+        <v>1.502935985751144</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.597456342895136</v>
+        <v>1.338888681246136</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.329405055330361</v>
+        <v>1.593846772029626</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.390848906526802</v>
+        <v>1.592416810993212</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.766358667350866</v>
+        <v>1.378167414927698</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.373590279511154</v>
+        <v>1.38828104836562</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.71070777942827</v>
+        <v>1.721532986816357</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.357761359657662</v>
+        <v>1.254262718524916</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.65036780760327</v>
+        <v>1.360586611515443</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/09_localizer.xlsx
+++ b/sequences/09_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>house</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
+    <t>face/face062.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
     <t>flower/flower077.jpg</t>
   </si>
   <si>
-    <t>house/house070.jpg</t>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>flower/flower090.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
   </si>
   <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.709813440467321</v>
+        <v>1.524115461077715</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.460414876095609</v>
+        <v>1.703773478262204</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.4746006989688</v>
+        <v>1.546624758712891</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.637531080617437</v>
+        <v>1.419990979283086</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.576357183005305</v>
+        <v>1.754823993961056</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.405917731163374</v>
+        <v>1.764427724825616</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.573414503512603</v>
+        <v>1.418682971608847</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.537647171537098</v>
+        <v>1.389498220442303</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.69279613048433</v>
+        <v>1.466875348255214</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.483372625687736</v>
+        <v>1.331784262971949</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.269687582535358</v>
+        <v>1.602955854692738</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.326830031367356</v>
+        <v>1.597675595729698</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.677514226094753</v>
+        <v>1.413985353981027</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.659627688770779</v>
+        <v>1.405920201715413</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.527637392879677</v>
+        <v>1.49302117420171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.534780979010167</v>
+        <v>1.705125530083451</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.478625125516351</v>
+        <v>1.391041372943226</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.63417277398642</v>
+        <v>1.596874874264814</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.308591590668595</v>
+        <v>1.312014011822641</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.437396611273479</v>
+        <v>1.293385146752511</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.641514242587649</v>
+        <v>1.741840373860516</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.237280087219272</v>
+        <v>1.64533962970651</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.386471382630206</v>
+        <v>1.574330300182615</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.384493282311864</v>
+        <v>1.391394449423409</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.510825137434043</v>
+        <v>1.494126643170599</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.815690140264373</v>
+        <v>1.295017068268322</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.470688627884639</v>
+        <v>1.621318691276338</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.567754764419115</v>
+        <v>1.144392296842866</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.684866531473092</v>
+        <v>1.486214445647198</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.388159295381195</v>
+        <v>1.592815376996421</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.344343207065302</v>
+        <v>1.585033748120937</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.659345395008437</v>
+        <v>1.431234141833647</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.389284637330464</v>
+        <v>1.567037294935213</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.58969232891499</v>
+        <v>1.191424614497156</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.216718979375033</v>
+        <v>1.564481080325754</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.683545768626401</v>
+        <v>1.349376405071021</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.47025321263444</v>
+        <v>1.354855305854949</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.645165049070048</v>
+        <v>1.496639492336883</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.47772786236918</v>
+        <v>1.54298315597503</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.531826709042891</v>
+        <v>1.56680200357146</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.504465448835121</v>
+        <v>1.144088208152756</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.347338507506962</v>
+        <v>1.636215440155233</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.316304524093609</v>
+        <v>1.581580899786879</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.542337485401253</v>
+        <v>1.803581756945982</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.558941921182676</v>
+        <v>1.185159879404422</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.560113430317066</v>
+        <v>1.311881405235388</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.481686721205962</v>
+        <v>1.492218385713196</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.519384451050877</v>
+        <v>1.31451947723911</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.397742363675668</v>
+        <v>1.676950941411318</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.368510899787379</v>
+        <v>1.494533853275595</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.611765355045055</v>
+        <v>1.223810640594933</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.273137107703148</v>
+        <v>1.391983253564368</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.59752887059229</v>
+        <v>1.616784742582747</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.721077421624538</v>
+        <v>1.497992504321977</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.557832008966351</v>
+        <v>1.432159960826482</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.319059786912512</v>
+        <v>1.207782951232132</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.478266605285479</v>
+        <v>1.606887989566517</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.278700588076684</v>
+        <v>1.449926863002243</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.581650200689189</v>
+        <v>1.628645238526151</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.488306429602824</v>
+        <v>1.757830784713541</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.445403317515152</v>
+        <v>1.629250095150058</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.464612500888596</v>
+        <v>1.472418319532838</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.673739433798296</v>
+        <v>1.589002508943526</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.243548132507818</v>
+        <v>1.361613802229727</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.824373316527325</v>
+        <v>1.505849301402282</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.577002526648793</v>
+        <v>1.558508210038084</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.558755411401654</v>
+        <v>1.650371838640282</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.602660566088957</v>
+        <v>1.394156236396743</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.33935739609668</v>
+        <v>1.506790581074007</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.634226716559575</v>
+        <v>1.752941761814258</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.358405432973991</v>
+        <v>1.272878181177269</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.756463647898676</v>
+        <v>1.282750330621995</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.390731598101575</v>
+        <v>1.326091264876728</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.595250733506653</v>
+        <v>1.549238793934754</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.68512826626896</v>
+        <v>1.662360681792713</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.559014815001081</v>
+        <v>1.321318310913562</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.490817552056567</v>
+        <v>1.496840971193946</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.815119243046925</v>
+        <v>1.490613415591085</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1.667008761983843</v>
+        <v>1.393841104858564</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.599937415648609</v>
+        <v>1.536186044620042</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.749919985057966</v>
+        <v>1.722641674562549</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.495178411122203</v>
+        <v>1.257734261457051</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.382425987053291</v>
+        <v>1.578042262239429</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.378753880310121</v>
+        <v>1.71189399085673</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.706025944255684</v>
+        <v>1.463963081430233</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.644873695487843</v>
+        <v>1.486424882668878</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.351444530248227</v>
+        <v>1.395018722754053</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.53689523075942</v>
+        <v>1.64949730629418</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.485469242920833</v>
+        <v>1.377588444109871</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.711407260627863</v>
+        <v>1.583575639685116</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.535418776895168</v>
+        <v>1.354726150640167</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.343481773627411</v>
+        <v>1.420112633407633</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.603241506047564</v>
+        <v>1.405955692703892</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.598847202848516</v>
+        <v>1.478188478073809</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.457755532656753</v>
+        <v>1.442204493598738</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.566333947081781</v>
+        <v>1.581653377045183</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.741409212693939</v>
+        <v>1.453398555000336</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.586174777525603</v>
+        <v>1.597893253643238</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.787859889566721</v>
+        <v>1.437627621130315</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.847257581502189</v>
+        <v>1.826606794996738</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.480899907218514</v>
+        <v>1.618844488383592</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.28408715930882</v>
+        <v>1.472119816900835</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.335400437994926</v>
+        <v>1.465665670890991</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.391129263005555</v>
+        <v>1.497259685865903</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.484386189215642</v>
+        <v>1.342158533281066</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.597350999557448</v>
+        <v>1.523787870449125</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.405879159270019</v>
+        <v>1.491870021745638</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.584076888044001</v>
+        <v>1.509210464403014</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.443898491437518</v>
+        <v>1.616895326079384</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1.507018431451084</v>
+        <v>1.211944861267209</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.676405661862346</v>
+        <v>1.56422754852973</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.347383170872526</v>
+        <v>1.506424988742353</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.225428937098208</v>
+        <v>1.577091031427119</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.584683915909695</v>
+        <v>1.304452586727652</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.553790850240043</v>
+        <v>1.47116147616626</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.545184765692496</v>
+        <v>1.395187711413769</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.387022358295948</v>
+        <v>1.27269405625566</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.653055246697238</v>
+        <v>1.604863944529241</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.391777564235562</v>
+        <v>1.510481923701082</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.416085590587405</v>
+        <v>1.381642696691333</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.606070696517237</v>
+        <v>1.411048724826257</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.482562940324327</v>
+        <v>1.324913745785947</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.565161548408373</v>
+        <v>1.34194744055347</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.639146888370541</v>
+        <v>1.436326280876128</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.449470707255694</v>
+        <v>1.366160392651788</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.630839472905802</v>
+        <v>1.441192368888788</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.593892364595127</v>
+        <v>1.630499971063953</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.279734652383814</v>
+        <v>1.482084405439903</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.105023884370141</v>
+        <v>1.593556536742923</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.405928537569825</v>
+        <v>1.938269667422491</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.137425067311566</v>
+        <v>1.561121360414123</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.441914231644808</v>
+        <v>1.340437906421117</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.367701725115692</v>
+        <v>1.404445325146719</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.655729762584695</v>
+        <v>1.47682732243524</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.263202182886614</v>
+        <v>1.362287754343054</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.493208028167984</v>
+        <v>1.529500631563114</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.48539079758059</v>
+        <v>1.713043578270747</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.377547549855726</v>
+        <v>1.492799283127408</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.577627743273369</v>
+        <v>1.631097882997046</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.668359797111348</v>
+        <v>1.646989556402961</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.290551432990544</v>
+        <v>1.467488285746164</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.401141152173323</v>
+        <v>1.302239843511538</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.609724354076021</v>
+        <v>1.110109738869884</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.637734783551571</v>
+        <v>1.483528959006024</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.305128736833982</v>
+        <v>1.353052796088086</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.427103207916908</v>
+        <v>1.452371058920524</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.429284354257476</v>
+        <v>1.53586603383892</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.697769032198513</v>
+        <v>1.37988922579636</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.414502802148892</v>
+        <v>1.342204785913289</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.312696190817909</v>
+        <v>1.610779519141051</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.849230715225569</v>
+        <v>1.452495847744118</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.399710607381282</v>
+        <v>1.506161605604151</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.708190487456454</v>
+        <v>1.556357967734423</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.714938619582048</v>
+        <v>1.729059904686245</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.515838509229894</v>
+        <v>1.074394661724606</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.4257428488585</v>
+        <v>1.400908041216184</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.626150324082275</v>
+        <v>1.525287888149698</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.391777719615178</v>
+        <v>1.546840610563771</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.449675164402775</v>
+        <v>1.516535839749114</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.437663636811485</v>
+        <v>1.352963264725491</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.890700868425509</v>
+        <v>1.673229496422312</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.658476122836596</v>
+        <v>1.516564526931462</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.714282048197018</v>
+        <v>1.552883885817125</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.489727014367829</v>
+        <v>1.594692409788638</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.40108409567373</v>
+        <v>1.776357873673765</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.462747830747021</v>
+        <v>1.571307939554826</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.53455136792953</v>
+        <v>1.585830112749864</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.621124447760256</v>
+        <v>1.624579741751634</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.567343946010395</v>
+        <v>1.576050120226044</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.514001104709705</v>
+        <v>1.299352215200871</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.563952672149537</v>
+        <v>1.683826230743151</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.505233960178695</v>
+        <v>1.537101999074193</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.576409751285615</v>
+        <v>1.498432420016836</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.728419501869376</v>
+        <v>1.403555223416225</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.767452441133845</v>
+        <v>1.146109060550415</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.555922336700795</v>
+        <v>1.431569054967176</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.424117969377881</v>
+        <v>1.714191527873332</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.606768003558741</v>
+        <v>1.553069623250245</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.629570034030303</v>
+        <v>1.637061871554094</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.35728136111681</v>
+        <v>1.698437200968029</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.436537473936658</v>
+        <v>1.51208748023314</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.576925466839572</v>
+        <v>1.448750595799086</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.508110998199733</v>
+        <v>1.333743008577156</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.41037014139475</v>
+        <v>1.347053419331365</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.356306092292808</v>
+        <v>1.664012132895829</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.253649585666685</v>
+        <v>1.52574316261474</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.483663791027826</v>
+        <v>1.606062070110557</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.436794211678802</v>
+        <v>1.241393249146059</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.404068675613706</v>
+        <v>1.546156606795362</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.466804274201831</v>
+        <v>1.500420431861054</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>1.590847327466356</v>
+        <v>1.605943562468642</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.577214790332171</v>
+        <v>1.346946723210116</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.486644513104487</v>
+        <v>1.466569187739854</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.722420503631612</v>
+        <v>1.536905221109929</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.285523380057476</v>
+        <v>1.424513898000575</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.615825853915995</v>
+        <v>1.69578652272316</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1.324522167397534</v>
+        <v>1.462739811812909</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.37130728107159</v>
+        <v>1.621140182257214</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.813756718633857</v>
+        <v>1.34090669514691</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.944783351787952</v>
+        <v>1.466606153199032</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.386393851567939</v>
+        <v>1.629532885520325</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.472425927985526</v>
+        <v>1.795013945982228</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.446821382572066</v>
+        <v>1.556656022248809</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.506036360277216</v>
+        <v>1.640305905774133</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.518867406687288</v>
+        <v>1.269767723300841</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.759884235871801</v>
+        <v>1.605581200397679</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.536779956937963</v>
+        <v>1.372347183806755</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.32256011315225</v>
+        <v>1.409292778876904</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.460828849432289</v>
+        <v>1.44911341109763</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.531326004074219</v>
+        <v>1.294254492816959</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.249161711299068</v>
+        <v>1.373323123923674</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.571240409330208</v>
+        <v>1.560731857777058</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.633528432413734</v>
+        <v>1.783848676348649</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.484007720278943</v>
+        <v>1.753810419233282</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.526894323086414</v>
+        <v>1.251801771019752</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.500011855646173</v>
+        <v>1.671706377124684</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.439185614431109</v>
+        <v>1.436220310830651</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.468575511282564</v>
+        <v>1.327277452790735</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.501344717685632</v>
+        <v>1.557856968523205</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.502646535858559</v>
+        <v>1.518345477817452</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.491474696386875</v>
+        <v>1.584199257683441</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.635850671661644</v>
+        <v>1.600761349021456</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.361686082991787</v>
+        <v>1.500904373900679</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.641947462803875</v>
+        <v>1.595277679762048</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.497244108675635</v>
+        <v>1.468031847384884</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.363681671744633</v>
+        <v>1.535900928326979</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.477479934443175</v>
+        <v>1.604300527286607</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.857459234434897</v>
+        <v>1.611270845960887</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.317659335040877</v>
+        <v>1.458177706996194</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.497985255960711</v>
+        <v>1.700834080169546</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.499018958723971</v>
+        <v>1.403019026407779</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.489199655659333</v>
+        <v>1.630172842947447</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.301340986237265</v>
+        <v>1.452890906750427</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.796213435321917</v>
+        <v>1.675684780676</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.470841900471741</v>
+        <v>1.693481840762527</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.427178926589071</v>
+        <v>1.405241357961993</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.326536267421464</v>
+        <v>1.461947509927789</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.659910600010267</v>
+        <v>1.328096583884777</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.548620451154477</v>
+        <v>1.727012630839237</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.480735997911291</v>
+        <v>1.433573630778477</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.659017485349644</v>
+        <v>1.186892365428945</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.309923599021004</v>
+        <v>1.501215714107161</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.471042469123917</v>
+        <v>1.604971661539355</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.766752687246615</v>
+        <v>1.48074400036675</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.634023837059952</v>
+        <v>1.283264462040079</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.65287920749897</v>
+        <v>1.497437908903911</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.536273291800142</v>
+        <v>1.227729068335174</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.502935985751144</v>
+        <v>1.496682369314964</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.338888681246136</v>
+        <v>1.726591651822939</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.593846772029626</v>
+        <v>1.658642470173459</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.592416810993212</v>
+        <v>1.69000289213778</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.378167414927698</v>
+        <v>1.392102298888839</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.38828104836562</v>
+        <v>1.662474140631384</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.721532986816357</v>
+        <v>1.198802559240386</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.254262718524916</v>
+        <v>1.507496752105565</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.360586611515443</v>
+        <v>1.400831617140347</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/09_localizer.xlsx
+++ b/sequences/09_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>face/face034.jpg</t>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
   </si>
   <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>flower/flower046.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
   </si>
   <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
   </si>
   <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
   </si>
   <si>
     <t>dog/dog054.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
   </si>
   <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
   </si>
   <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
     <t>face/face091.jpg</t>
   </si>
   <si>
-    <t>dog/dog094.jpg</t>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>house/house094.jpg</t>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.524115461077715</v>
+        <v>1.458249865356817</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.703773478262204</v>
+        <v>1.646141737424378</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.546624758712891</v>
+        <v>1.535707666659074</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.419990979283086</v>
+        <v>1.646341852104337</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.754823993961056</v>
+        <v>1.57858691748581</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.764427724825616</v>
+        <v>1.721228299550196</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.418682971608847</v>
+        <v>1.301994217389436</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.389498220442303</v>
+        <v>1.495907838390174</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.466875348255214</v>
+        <v>1.595192190014038</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.331784262971949</v>
+        <v>1.592299022560201</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.602955854692738</v>
+        <v>1.530396288001964</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.597675595729698</v>
+        <v>1.434420968596585</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.413985353981027</v>
+        <v>1.658028777797317</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.405920201715413</v>
+        <v>1.616506192441759</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.49302117420171</v>
+        <v>1.258255952395584</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.705125530083451</v>
+        <v>1.401417552759996</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.391041372943226</v>
+        <v>1.667113326003441</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.596874874264814</v>
+        <v>1.6690862852919</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.312014011822641</v>
+        <v>1.446323827735811</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.293385146752511</v>
+        <v>1.664962558075907</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.741840373860516</v>
+        <v>1.546948837744976</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.64533962970651</v>
+        <v>1.44421522811534</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.574330300182615</v>
+        <v>1.584244247721589</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.391394449423409</v>
+        <v>1.930092466574974</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.494126643170599</v>
+        <v>1.343948523987647</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.295017068268322</v>
+        <v>1.636038221263393</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.621318691276338</v>
+        <v>1.582812050661722</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.144392296842866</v>
+        <v>1.693332515989412</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.486214445647198</v>
+        <v>1.408029541790733</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.592815376996421</v>
+        <v>1.508553792041983</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.585033748120937</v>
+        <v>1.78715116742938</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.431234141833647</v>
+        <v>1.400258786929847</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.567037294935213</v>
+        <v>1.738058455510035</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.191424614497156</v>
+        <v>1.595648080814434</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.564481080325754</v>
+        <v>1.464472317704892</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.349376405071021</v>
+        <v>1.511290741744032</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.354855305854949</v>
+        <v>1.631607219937623</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.496639492336883</v>
+        <v>1.644647721957177</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.54298315597503</v>
+        <v>1.321929041999925</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.56680200357146</v>
+        <v>1.266784911098608</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.144088208152756</v>
+        <v>1.545113626168088</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1.636215440155233</v>
+        <v>1.346896907861575</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.581580899786879</v>
+        <v>1.348054320396089</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.803581756945982</v>
+        <v>1.536598911237389</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.185159879404422</v>
+        <v>1.732457491059472</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.311881405235388</v>
+        <v>1.699680931260498</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.492218385713196</v>
+        <v>1.373070418595804</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.31451947723911</v>
+        <v>1.664565114211154</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.676950941411318</v>
+        <v>1.643292339311337</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.494533853275595</v>
+        <v>1.576377408459445</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.223810640594933</v>
+        <v>1.638712393807548</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.391983253564368</v>
+        <v>1.561027950654609</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.616784742582747</v>
+        <v>1.626780016937743</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.497992504321977</v>
+        <v>1.404120955983223</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.432159960826482</v>
+        <v>1.481599654947712</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.207782951232132</v>
+        <v>1.627615272784502</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.606887989566517</v>
+        <v>1.333170993252397</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.449926863002243</v>
+        <v>1.151824215747119</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.628645238526151</v>
+        <v>1.430440707340668</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.757830784713541</v>
+        <v>1.487776229492029</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.629250095150058</v>
+        <v>1.572772513311147</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.472418319532838</v>
+        <v>1.499439319167606</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.589002508943526</v>
+        <v>1.874464865640379</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.361613802229727</v>
+        <v>1.379455631514994</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.505849301402282</v>
+        <v>1.656472700866223</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.558508210038084</v>
+        <v>1.325350976692891</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.650371838640282</v>
+        <v>1.703924861126549</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.394156236396743</v>
+        <v>1.519547258510858</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.506790581074007</v>
+        <v>1.380262742667944</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.752941761814258</v>
+        <v>1.53385574382155</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.272878181177269</v>
+        <v>1.353731719876656</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.282750330621995</v>
+        <v>1.31369269380881</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.326091264876728</v>
+        <v>1.777319457902514</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.549238793934754</v>
+        <v>1.31855053189924</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.662360681792713</v>
+        <v>1.886460042095897</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.321318310913562</v>
+        <v>1.710101274867781</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.496840971193946</v>
+        <v>1.511383010053958</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.490613415591085</v>
+        <v>1.385001336505274</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.393841104858564</v>
+        <v>1.610169965551947</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.536186044620042</v>
+        <v>1.665898256471688</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.722641674562549</v>
+        <v>1.551904867371681</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.257734261457051</v>
+        <v>1.419075634392528</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.578042262239429</v>
+        <v>1.597201232527097</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.71189399085673</v>
+        <v>1.599677602823352</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.463963081430233</v>
+        <v>1.623224779971586</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.486424882668878</v>
+        <v>1.446716239781246</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.395018722754053</v>
+        <v>1.370409926486008</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.64949730629418</v>
+        <v>1.266429516948323</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.377588444109871</v>
+        <v>1.680554014616613</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.583575639685116</v>
+        <v>1.653860138971734</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.354726150640167</v>
+        <v>1.779536329175459</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.420112633407633</v>
+        <v>1.557664738796587</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.405955692703892</v>
+        <v>1.613588355044407</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.478188478073809</v>
+        <v>1.503361970561183</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.442204493598738</v>
+        <v>1.335733256870806</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.581653377045183</v>
+        <v>1.676301508995017</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.453398555000336</v>
+        <v>1.464632756059757</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.597893253643238</v>
+        <v>1.45846149606312</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.437627621130315</v>
+        <v>1.458952397712733</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.826606794996738</v>
+        <v>1.72618797977815</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.618844488383592</v>
+        <v>1.564386973005102</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.472119816900835</v>
+        <v>1.539307031757636</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.465665670890991</v>
+        <v>1.248023556421611</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.497259685865903</v>
+        <v>1.163871011158806</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.342158533281066</v>
+        <v>1.631336853847332</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1.523787870449125</v>
+        <v>1.492158388462204</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.491870021745638</v>
+        <v>1.60255152554361</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.509210464403014</v>
+        <v>1.689033146765722</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.616895326079384</v>
+        <v>1.169362735341598</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.211944861267209</v>
+        <v>1.402490220851075</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.56422754852973</v>
+        <v>1.450132199839083</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.506424988742353</v>
+        <v>1.533742909444068</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.577091031427119</v>
+        <v>1.290701260968388</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.304452586727652</v>
+        <v>1.403754752077808</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.47116147616626</v>
+        <v>1.543910465623775</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.395187711413769</v>
+        <v>1.743038293548714</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.27269405625566</v>
+        <v>1.709489608081939</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.604863944529241</v>
+        <v>1.599838231543086</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.510481923701082</v>
+        <v>1.060549716174212</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.381642696691333</v>
+        <v>1.617610786927031</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.411048724826257</v>
+        <v>1.523282680379904</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.324913745785947</v>
+        <v>1.610697195963667</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.34194744055347</v>
+        <v>1.592330176372772</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.436326280876128</v>
+        <v>1.32195854822079</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.366160392651788</v>
+        <v>1.582212587431396</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.441192368888788</v>
+        <v>1.36369641464707</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.630499971063953</v>
+        <v>1.33429622809298</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.482084405439903</v>
+        <v>1.402777749951866</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.593556536742923</v>
+        <v>1.477828664605521</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.938269667422491</v>
+        <v>1.565962519997497</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.561121360414123</v>
+        <v>1.691423583231432</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.340437906421117</v>
+        <v>1.571775146230674</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.404445325146719</v>
+        <v>1.464220411857552</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.47682732243524</v>
+        <v>1.681955278977163</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.362287754343054</v>
+        <v>1.550068976672825</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.529500631563114</v>
+        <v>1.552488271576083</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.713043578270747</v>
+        <v>1.254431051484492</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.492799283127408</v>
+        <v>1.372499226805965</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.631097882997046</v>
+        <v>1.697314348599742</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.646989556402961</v>
+        <v>1.600045162893579</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.467488285746164</v>
+        <v>1.734827555732622</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.302239843511538</v>
+        <v>1.811256379862645</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.110109738869884</v>
+        <v>1.525403673494254</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.483528959006024</v>
+        <v>1.729536531754547</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.353052796088086</v>
+        <v>1.681271604148223</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.452371058920524</v>
+        <v>1.60117143967487</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.53586603383892</v>
+        <v>1.478071758963338</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.37988922579636</v>
+        <v>1.734512576005081</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.342204785913289</v>
+        <v>1.392716499634758</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.610779519141051</v>
+        <v>1.414836160003521</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.452495847744118</v>
+        <v>1.646251680347793</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.506161605604151</v>
+        <v>1.442102382217455</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.556357967734423</v>
+        <v>1.560389475093621</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.729059904686245</v>
+        <v>1.248088230843753</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.074394661724606</v>
+        <v>1.417164754846562</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.400908041216184</v>
+        <v>1.428776946103104</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.525287888149698</v>
+        <v>1.344984874838012</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.546840610563771</v>
+        <v>1.447133276483992</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.516535839749114</v>
+        <v>1.463001708380543</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.352963264725491</v>
+        <v>1.394331516109862</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.673229496422312</v>
+        <v>1.388626161854876</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.516564526931462</v>
+        <v>1.510352625322596</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.552883885817125</v>
+        <v>1.250999203297064</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.594692409788638</v>
+        <v>1.507258846479866</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.776357873673765</v>
+        <v>1.450366342922703</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.571307939554826</v>
+        <v>1.626677521556493</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.585830112749864</v>
+        <v>1.502578362839228</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.624579741751634</v>
+        <v>1.44578508661653</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.576050120226044</v>
+        <v>1.531337216035432</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.299352215200871</v>
+        <v>1.383340984028354</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.683826230743151</v>
+        <v>1.302014252340728</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.537101999074193</v>
+        <v>1.922223838900726</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.498432420016836</v>
+        <v>1.372069593044513</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.403555223416225</v>
+        <v>1.560881616881104</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.146109060550415</v>
+        <v>1.325079219128888</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.431569054967176</v>
+        <v>1.627206385205402</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.714191527873332</v>
+        <v>1.108501779537599</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.553069623250245</v>
+        <v>1.419743299190644</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.637061871554094</v>
+        <v>1.60044417798831</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.698437200968029</v>
+        <v>1.542220692669779</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.51208748023314</v>
+        <v>1.194212195169369</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.448750595799086</v>
+        <v>1.26148524509641</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.333743008577156</v>
+        <v>1.747735668280239</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.347053419331365</v>
+        <v>1.568604011857488</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.664012132895829</v>
+        <v>1.500199109627456</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.52574316261474</v>
+        <v>1.272591458625641</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.606062070110557</v>
+        <v>1.344040723460036</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.241393249146059</v>
+        <v>1.625723125571867</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.546156606795362</v>
+        <v>1.42458981245142</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.500420431861054</v>
+        <v>1.670416440443137</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.605943562468642</v>
+        <v>1.557907176309838</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.346946723210116</v>
+        <v>1.395898494360826</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.466569187739854</v>
+        <v>1.235987044756935</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.536905221109929</v>
+        <v>1.669044607529459</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.424513898000575</v>
+        <v>1.591035650830632</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.69578652272316</v>
+        <v>1.391699749894396</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.462739811812909</v>
+        <v>1.611636370430141</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.621140182257214</v>
+        <v>1.331190578482331</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.34090669514691</v>
+        <v>1.646750021903886</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.466606153199032</v>
+        <v>1.460456903382135</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.629532885520325</v>
+        <v>1.525710205094661</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.795013945982228</v>
+        <v>1.568208658493772</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.556656022248809</v>
+        <v>1.515426455701077</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.640305905774133</v>
+        <v>1.678630565145614</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.269767723300841</v>
+        <v>1.611537097546061</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.605581200397679</v>
+        <v>1.400623363764579</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.372347183806755</v>
+        <v>1.498256445630864</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.409292778876904</v>
+        <v>1.676673204613142</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.44911341109763</v>
+        <v>1.500724658859373</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.294254492816959</v>
+        <v>1.279853285608765</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.373323123923674</v>
+        <v>1.642581213660585</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.560731857777058</v>
+        <v>1.289340715025036</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.783848676348649</v>
+        <v>1.554461938443515</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.753810419233282</v>
+        <v>1.343712611290367</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.251801771019752</v>
+        <v>1.443247434559915</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.671706377124684</v>
+        <v>1.616969276919189</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.436220310830651</v>
+        <v>1.503265954901625</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.327277452790735</v>
+        <v>1.254912204042574</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.557856968523205</v>
+        <v>1.524905425873115</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.518345477817452</v>
+        <v>1.533262519392558</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.584199257683441</v>
+        <v>1.458010576458448</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.600761349021456</v>
+        <v>1.393823847446203</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.500904373900679</v>
+        <v>1.534720572728034</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.595277679762048</v>
+        <v>1.332636700843111</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.468031847384884</v>
+        <v>1.357582167938322</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.535900928326979</v>
+        <v>1.557412869488869</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.604300527286607</v>
+        <v>1.567065477855718</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.611270845960887</v>
+        <v>1.610956393962533</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.458177706996194</v>
+        <v>1.45097893788247</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.700834080169546</v>
+        <v>1.572268926467492</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.403019026407779</v>
+        <v>1.456700234293809</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.630172842947447</v>
+        <v>1.677925116959977</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.452890906750427</v>
+        <v>1.493828728491723</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.675684780676</v>
+        <v>1.507782505378329</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.693481840762527</v>
+        <v>1.422850517089034</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.405241357961993</v>
+        <v>1.345746706439332</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.461947509927789</v>
+        <v>1.375620649093054</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.328096583884777</v>
+        <v>1.523566314421865</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.727012630839237</v>
+        <v>1.351164132769027</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.433573630778477</v>
+        <v>1.599748205291194</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.186892365428945</v>
+        <v>1.802275585060725</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.501215714107161</v>
+        <v>1.622738222495373</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.604971661539355</v>
+        <v>1.568146078786019</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.48074400036675</v>
+        <v>1.555473852723216</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.283264462040079</v>
+        <v>1.565702457799451</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.497437908903911</v>
+        <v>1.749273260941404</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.227729068335174</v>
+        <v>1.423309323940438</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.496682369314964</v>
+        <v>1.633364156507283</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.726591651822939</v>
+        <v>1.464304498454108</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.658642470173459</v>
+        <v>1.599623093058643</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.69000289213778</v>
+        <v>1.614298851105868</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.392102298888839</v>
+        <v>1.694709072988806</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.662474140631384</v>
+        <v>1.458611350543236</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.198802559240386</v>
+        <v>1.369809354427116</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.507496752105565</v>
+        <v>1.465410938764041</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.400831617140347</v>
+        <v>1.511985009436249</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/09_localizer.xlsx
+++ b/sequences/09_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>flower</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>face/face044.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
   </si>
   <si>
     <t>flower/flower056.jpg</t>
   </si>
   <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
   </si>
   <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>face/face065.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>dog/dog064.jpg</t>
+    <t>house/house072.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
+    <t>face/face067.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>face/face085.jpg</t>
   </si>
   <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
     <t>dog/dog082.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
+    <t>face/face095.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.458249865356817</v>
+        <v>1.649533624953347</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.646141737424378</v>
+        <v>1.379691121100928</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.535707666659074</v>
+        <v>1.487303770447982</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.646341852104337</v>
+        <v>1.260851455510909</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.57858691748581</v>
+        <v>1.571498459347957</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.721228299550196</v>
+        <v>1.533758995596363</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.301994217389436</v>
+        <v>1.427072385503706</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.495907838390174</v>
+        <v>1.494083995937427</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.595192190014038</v>
+        <v>1.339462439564164</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.592299022560201</v>
+        <v>1.511530111302179</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.530396288001964</v>
+        <v>1.731243042891732</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.434420968596585</v>
+        <v>1.516975709040105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.658028777797317</v>
+        <v>1.741545438273436</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.616506192441759</v>
+        <v>1.32028741455217</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.258255952395584</v>
+        <v>1.416489304812109</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.401417552759996</v>
+        <v>1.566651563537756</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.667113326003441</v>
+        <v>1.339523693296164</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.6690862852919</v>
+        <v>1.629359286073113</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.446323827735811</v>
+        <v>1.559405725846658</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.664962558075907</v>
+        <v>1.267486087069264</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.546948837744976</v>
+        <v>1.174434569853144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.44421522811534</v>
+        <v>1.643748342982394</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.584244247721589</v>
+        <v>1.419474093873004</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.930092466574974</v>
+        <v>1.510740356644272</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.343948523987647</v>
+        <v>1.381289929498705</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.636038221263393</v>
+        <v>1.490735423336757</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.582812050661722</v>
+        <v>1.335055406995656</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.693332515989412</v>
+        <v>1.632115182026865</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.408029541790733</v>
+        <v>1.579841566833078</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.508553792041983</v>
+        <v>1.547626094333666</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.78715116742938</v>
+        <v>1.43545232169534</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.400258786929847</v>
+        <v>1.45918757106043</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.738058455510035</v>
+        <v>1.72961801203628</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.595648080814434</v>
+        <v>1.677906554082896</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.464472317704892</v>
+        <v>1.559683078236625</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.511290741744032</v>
+        <v>1.514756250268349</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.631607219937623</v>
+        <v>1.564900983673039</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.644647721957177</v>
+        <v>1.519617686057297</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.321929041999925</v>
+        <v>1.479757627647023</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.266784911098608</v>
+        <v>1.464491124474269</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.545113626168088</v>
+        <v>1.613372956192386</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.346896907861575</v>
+        <v>1.32575603515306</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.348054320396089</v>
+        <v>1.25035163228386</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.536598911237389</v>
+        <v>1.555298014442955</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.732457491059472</v>
+        <v>1.475950586012282</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.699680931260498</v>
+        <v>1.764545783951981</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.373070418595804</v>
+        <v>1.538148244382521</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.664565114211154</v>
+        <v>1.793610921622325</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.643292339311337</v>
+        <v>1.697147088796361</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.576377408459445</v>
+        <v>1.49067965375629</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.638712393807548</v>
+        <v>1.508540706937651</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.561027950654609</v>
+        <v>1.811110630269237</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.626780016937743</v>
+        <v>1.655227043577623</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.404120955983223</v>
+        <v>1.392603607906304</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.481599654947712</v>
+        <v>1.361529811836914</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.627615272784502</v>
+        <v>1.245837759733769</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.333170993252397</v>
+        <v>1.348181743198649</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.151824215747119</v>
+        <v>1.512708507581754</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.430440707340668</v>
+        <v>1.704819717562204</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.487776229492029</v>
+        <v>1.537093127107324</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.572772513311147</v>
+        <v>1.590795790114976</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.499439319167606</v>
+        <v>1.233756108745422</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.874464865640379</v>
+        <v>1.447861912190718</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.379455631514994</v>
+        <v>1.541427157555701</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.656472700866223</v>
+        <v>1.343895062867171</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.325350976692891</v>
+        <v>1.459606053722521</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.703924861126549</v>
+        <v>1.776508085417501</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.519547258510858</v>
+        <v>1.417580357895766</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.380262742667944</v>
+        <v>1.302396771296543</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.53385574382155</v>
+        <v>1.356168592458709</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.353731719876656</v>
+        <v>1.824461182097248</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.31369269380881</v>
+        <v>1.827797911571678</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.777319457902514</v>
+        <v>1.71533041303816</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.31855053189924</v>
+        <v>1.592388506650436</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.886460042095897</v>
+        <v>1.536005184296745</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.710101274867781</v>
+        <v>1.513957445544207</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.511383010053958</v>
+        <v>1.526173388513295</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.385001336505274</v>
+        <v>1.589592518070909</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.610169965551947</v>
+        <v>1.833069374991643</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.665898256471688</v>
+        <v>1.512629911573044</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.551904867371681</v>
+        <v>1.631405187747292</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.419075634392528</v>
+        <v>1.440008341443671</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.597201232527097</v>
+        <v>1.363060025947054</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.599677602823352</v>
+        <v>1.30100759282965</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.623224779971586</v>
+        <v>1.197597868255799</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.446716239781246</v>
+        <v>1.499085184782058</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.370409926486008</v>
+        <v>1.773322315246687</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.266429516948323</v>
+        <v>1.552839706789825</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1.680554014616613</v>
+        <v>1.295163072874899</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.653860138971734</v>
+        <v>1.637115199610329</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.779536329175459</v>
+        <v>1.706696918167468</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.557664738796587</v>
+        <v>1.524072856205849</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.613588355044407</v>
+        <v>1.352944480469272</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.503361970561183</v>
+        <v>1.651333540957748</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.335733256870806</v>
+        <v>1.676547275352849</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.676301508995017</v>
+        <v>1.274948874266104</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.464632756059757</v>
+        <v>1.397244801460737</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.45846149606312</v>
+        <v>1.686830159350175</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1.458952397712733</v>
+        <v>1.53946674737543</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.72618797977815</v>
+        <v>1.512792120674376</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.564386973005102</v>
+        <v>1.45237591816122</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.539307031757636</v>
+        <v>1.697989232901151</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.248023556421611</v>
+        <v>1.515099551756567</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.163871011158806</v>
+        <v>1.578431937759449</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.631336853847332</v>
+        <v>1.400943873765457</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.492158388462204</v>
+        <v>1.450956816009572</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.60255152554361</v>
+        <v>1.478593146662132</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.689033146765722</v>
+        <v>1.35275527314459</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.169362735341598</v>
+        <v>1.441934806896048</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.402490220851075</v>
+        <v>1.427853021332157</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.450132199839083</v>
+        <v>1.60198856712079</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.533742909444068</v>
+        <v>1.456714374673818</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.290701260968388</v>
+        <v>1.46856785581956</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.403754752077808</v>
+        <v>1.637466929392516</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.543910465623775</v>
+        <v>1.323077867212904</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.743038293548714</v>
+        <v>1.470091258995</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.709489608081939</v>
+        <v>1.691819021340727</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.599838231543086</v>
+        <v>1.46277482583034</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.060549716174212</v>
+        <v>1.563561925762584</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.617610786927031</v>
+        <v>1.627980027441885</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.523282680379904</v>
+        <v>1.736127461989877</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.610697195963667</v>
+        <v>1.40759647613999</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.592330176372772</v>
+        <v>1.601623166217926</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.32195854822079</v>
+        <v>1.555446328118258</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.582212587431396</v>
+        <v>1.679303241478386</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.36369641464707</v>
+        <v>1.624629172267759</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.33429622809298</v>
+        <v>1.487915502732394</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.402777749951866</v>
+        <v>1.630403075403992</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.477828664605521</v>
+        <v>1.528141385501615</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.565962519997497</v>
+        <v>1.334508101454819</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.691423583231432</v>
+        <v>1.283800827296637</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.571775146230674</v>
+        <v>1.564544031536961</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.464220411857552</v>
+        <v>1.6279310628486</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.681955278977163</v>
+        <v>1.307111911682027</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.550068976672825</v>
+        <v>1.343121672213808</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.552488271576083</v>
+        <v>1.318370357333865</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.254431051484492</v>
+        <v>1.443086396263429</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.372499226805965</v>
+        <v>1.781544463272828</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.697314348599742</v>
+        <v>1.808327919175391</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.600045162893579</v>
+        <v>1.529951521440273</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.734827555732622</v>
+        <v>1.481230422491884</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.811256379862645</v>
+        <v>1.451260621873922</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.525403673494254</v>
+        <v>1.445642001683348</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.729536531754547</v>
+        <v>1.405309286578279</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.681271604148223</v>
+        <v>1.491500248138557</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.60117143967487</v>
+        <v>1.53155014352712</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.478071758963338</v>
+        <v>1.446907588190669</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.734512576005081</v>
+        <v>1.714944678605463</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.392716499634758</v>
+        <v>1.828030277907897</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.414836160003521</v>
+        <v>1.407333554057125</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.646251680347793</v>
+        <v>1.569710844636041</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.442102382217455</v>
+        <v>1.652540283066099</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.560389475093621</v>
+        <v>1.409435859121224</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.248088230843753</v>
+        <v>1.507160410773202</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.417164754846562</v>
+        <v>1.453059581428247</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.428776946103104</v>
+        <v>1.511602221879826</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.344984874838012</v>
+        <v>1.70241661477395</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.447133276483992</v>
+        <v>1.456016877563764</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.463001708380543</v>
+        <v>1.542620418882235</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.394331516109862</v>
+        <v>1.364663210428279</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1.388626161854876</v>
+        <v>1.411182684442665</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.510352625322596</v>
+        <v>1.365316548224025</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.250999203297064</v>
+        <v>1.687523754941422</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.507258846479866</v>
+        <v>1.583289166560259</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.450366342922703</v>
+        <v>1.527326739662175</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.626677521556493</v>
+        <v>1.655657549580676</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.502578362839228</v>
+        <v>1.455516867325539</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.44578508661653</v>
+        <v>1.559093875726011</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.531337216035432</v>
+        <v>1.297372512259937</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.383340984028354</v>
+        <v>1.475140654143932</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.302014252340728</v>
+        <v>1.375805494570771</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.922223838900726</v>
+        <v>1.501474876673603</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.372069593044513</v>
+        <v>1.691534008770373</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.560881616881104</v>
+        <v>1.374322787021437</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.325079219128888</v>
+        <v>1.46172210690454</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.627206385205402</v>
+        <v>1.861877012990819</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.108501779537599</v>
+        <v>1.414246730202845</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.419743299190644</v>
+        <v>1.343332518224201</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.60044417798831</v>
+        <v>1.418554167624984</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.542220692669779</v>
+        <v>1.6005128444505</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.194212195169369</v>
+        <v>1.282590549626151</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.26148524509641</v>
+        <v>1.661394635255531</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.747735668280239</v>
+        <v>1.557359502416648</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.568604011857488</v>
+        <v>1.82540570110135</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.500199109627456</v>
+        <v>1.736874390715309</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.272591458625641</v>
+        <v>1.376823030439288</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.344040723460036</v>
+        <v>1.646046583524117</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.625723125571867</v>
+        <v>1.402224678183107</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.42458981245142</v>
+        <v>1.238733768178574</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.670416440443137</v>
+        <v>1.383996813103946</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.557907176309838</v>
+        <v>1.27820531312553</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.395898494360826</v>
+        <v>1.196564890402124</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.235987044756935</v>
+        <v>1.530841018150503</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.669044607529459</v>
+        <v>1.340095410758802</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.591035650830632</v>
+        <v>1.377188477007356</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.391699749894396</v>
+        <v>1.268382333476306</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.611636370430141</v>
+        <v>1.458495094257461</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>1.331190578482331</v>
+        <v>1.337287506132391</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.646750021903886</v>
+        <v>1.632464766724457</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.460456903382135</v>
+        <v>1.603906984765916</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.525710205094661</v>
+        <v>1.491984744890851</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.568208658493772</v>
+        <v>1.469727945552473</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.515426455701077</v>
+        <v>1.365183406152823</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.678630565145614</v>
+        <v>1.84211854989933</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.611537097546061</v>
+        <v>1.447914722613069</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.400623363764579</v>
+        <v>1.952765531436745</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.498256445630864</v>
+        <v>1.708001638047087</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.676673204613142</v>
+        <v>1.458459805316364</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.500724658859373</v>
+        <v>1.576632073603119</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.279853285608765</v>
+        <v>1.501843674523402</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.642581213660585</v>
+        <v>1.85231556042011</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.289340715025036</v>
+        <v>1.340725634293088</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.554461938443515</v>
+        <v>1.305592595214356</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.343712611290367</v>
+        <v>1.550777154392368</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.443247434559915</v>
+        <v>1.505721171735227</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.616969276919189</v>
+        <v>1.320307616473162</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.503265954901625</v>
+        <v>1.752663158451215</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.254912204042574</v>
+        <v>1.358517798478763</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.524905425873115</v>
+        <v>1.66305935475971</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.533262519392558</v>
+        <v>1.27527943495592</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.458010576458448</v>
+        <v>1.733503948553971</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.393823847446203</v>
+        <v>1.511995601465926</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.534720572728034</v>
+        <v>1.367061355364219</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.332636700843111</v>
+        <v>1.520568422384017</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.357582167938322</v>
+        <v>1.437039014252269</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.557412869488869</v>
+        <v>1.508363740669674</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.567065477855718</v>
+        <v>1.331562531193287</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.610956393962533</v>
+        <v>1.486195270103171</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.45097893788247</v>
+        <v>1.515024626100038</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.572268926467492</v>
+        <v>1.708464689732974</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.456700234293809</v>
+        <v>1.407106429480772</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.677925116959977</v>
+        <v>1.421218823852995</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.493828728491723</v>
+        <v>1.465219286856614</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.507782505378329</v>
+        <v>1.313401456243033</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.422850517089034</v>
+        <v>1.536573204043823</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.345746706439332</v>
+        <v>1.491409351545677</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.375620649093054</v>
+        <v>1.206597248893269</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.523566314421865</v>
+        <v>1.404273684306049</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.351164132769027</v>
+        <v>1.361463796029892</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.599748205291194</v>
+        <v>1.724968857500359</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.802275585060725</v>
+        <v>1.379118241627681</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.622738222495373</v>
+        <v>1.574807233500264</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.568146078786019</v>
+        <v>1.513532222705885</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.555473852723216</v>
+        <v>1.392755849771659</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.565702457799451</v>
+        <v>1.48023455342358</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.749273260941404</v>
+        <v>1.491779157340225</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.423309323940438</v>
+        <v>1.513289196751787</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.633364156507283</v>
+        <v>1.644561710421105</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.464304498454108</v>
+        <v>1.404020923516589</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.599623093058643</v>
+        <v>1.488581606264997</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.614298851105868</v>
+        <v>1.690780960817328</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.694709072988806</v>
+        <v>1.639987594365358</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.458611350543236</v>
+        <v>1.46379048814489</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.369809354427116</v>
+        <v>1.581380236487717</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.465410938764041</v>
+        <v>1.565709766325124</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.511985009436249</v>
+        <v>1.63592810265107</v>
       </c>
     </row>
   </sheetData>
